--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F918FE1-AE26-449F-B15E-EA0E06F6368E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D6554-6020-4227-AD0B-C5B249C89133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Programmer" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
   <si>
     <t>A15</t>
   </si>
@@ -275,16 +276,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95254</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>129267</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>462646</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>102052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466729</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>110217</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>221799</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -307,7 +308,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95254" y="8511267"/>
+          <a:off x="1074967" y="8103052"/>
           <a:ext cx="11393261" cy="4552950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -502,6 +503,187 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316231</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6868D44-2D10-49B0-B720-7933C743BC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="600075"/>
+          <a:ext cx="5726431" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>118658</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AA4C26-700E-499A-838D-C550FF808823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1009650"/>
+          <a:ext cx="5071658" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>154606</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6339D51D-29C4-492F-B6C7-AE11E95C4158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536706" y="1042147"/>
+          <a:ext cx="4771429" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>18736</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE90A77-98DC-448F-A185-72CEB21CA264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12382501" y="4796117"/>
+          <a:ext cx="7000000" cy="4190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -908,15 +1090,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D884B67-3D28-44CF-A787-D6B5FD9EAB58}">
-  <dimension ref="A3:Z47"/>
+  <dimension ref="A3:AO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK41" sqref="AK41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1159,68 @@
       <c r="T3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="V3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,6 +1279,66 @@
         <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1226,6 +1528,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D40893-0E40-43C7-B9BD-3B8B49C8C7E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8B79B4-CE74-4060-BD3B-385346B424EA}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D6554-6020-4227-AD0B-C5B249C89133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C29C1-BFDC-499D-8F3C-EAC7CCC79CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Programmer" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="555" sheetId="4" r:id="rId3"/>
+    <sheet name="debug" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
   <si>
     <t>A15</t>
   </si>
@@ -128,9 +129,6 @@
     <t>CLK1</t>
   </si>
   <si>
-    <t>CLK2</t>
-  </si>
-  <si>
     <t>RW</t>
   </si>
   <si>
@@ -155,16 +153,13 @@
     <t>CLK</t>
   </si>
   <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>OEN</t>
-  </si>
-  <si>
-    <t>RCLK</t>
-  </si>
-  <si>
-    <t>SCLK</t>
+    <t>NMIn</t>
+  </si>
+  <si>
+    <t>IRQn</t>
+  </si>
+  <si>
+    <t>RSTn</t>
   </si>
 </sst>
 </file>
@@ -499,6 +494,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385885</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>118761</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9094DC-3918-45BD-917C-537A897BF148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3800475" y="3533777"/>
+          <a:ext cx="1438095" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -684,6 +723,55 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32988</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13A7784-ACC3-49D0-9BAD-DD26F5D02BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7600950" y="1571625"/>
+          <a:ext cx="3200000" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1092,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D884B67-3D28-44CF-A787-D6B5FD9EAB58}">
   <dimension ref="A3:AO47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK41" sqref="AK41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,46 +1203,46 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>12</v>
@@ -1175,10 +1263,10 @@
         <v>11</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>28</v>
@@ -1187,34 +1275,34 @@
         <v>27</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AO3" s="3" t="s">
         <v>12</v>
@@ -1416,46 +1504,46 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>11</v>
@@ -1474,7 +1562,7 @@
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -1499,26 +1587,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C960A-ABA6-449D-B37A-7A91B41824C4}">
-  <dimension ref="H22:K22"/>
+  <dimension ref="A4:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1531,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D40893-0E40-43C7-B9BD-3B8B49C8C7E7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,6 +1741,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4279E6B0-CFAA-4D9F-AFB8-6F1B9006298B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P46" sqref="P46:R75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8B79B4-CE74-4060-BD3B-385346B424EA}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C29C1-BFDC-499D-8F3C-EAC7CCC79CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84469C3B-AEFA-4E4C-BA67-F42D9D5C8997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Programmer" sheetId="2" r:id="rId2"/>
-    <sheet name="555" sheetId="4" r:id="rId3"/>
-    <sheet name="debug" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="MemoryMap" sheetId="6" r:id="rId3"/>
+    <sheet name="555" sheetId="4" r:id="rId4"/>
+    <sheet name="debug" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
   <si>
     <t>A15</t>
   </si>
@@ -160,6 +158,51 @@
   </si>
   <si>
     <t>RSTn</t>
+  </si>
+  <si>
+    <t>0x8000</t>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>32KB</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>0x3FFF</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>16KB</t>
+  </si>
+  <si>
+    <t>0x4000</t>
+  </si>
+  <si>
+    <t>0x400F</t>
+  </si>
+  <si>
+    <t>PIO</t>
+  </si>
+  <si>
+    <t>16B</t>
+  </si>
+  <si>
+    <t>0x4010</t>
+  </si>
+  <si>
+    <t>0x7FFF</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1624,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1589,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C960A-ABA6-449D-B37A-7A91B41824C4}">
   <dimension ref="A4:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1721,11 +1765,84 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1416E338-54A6-456F-89BC-9D251DA08EE1}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D40893-0E40-43C7-B9BD-3B8B49C8C7E7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1736,11 +1853,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4279E6B0-CFAA-4D9F-AFB8-6F1B9006298B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1751,11 +1869,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8B79B4-CE74-4060-BD3B-385346B424EA}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84469C3B-AEFA-4E4C-BA67-F42D9D5C8997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA18990-4EE8-4635-8D86-BB64E24E38C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="56">
   <si>
     <t>A15</t>
   </si>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D884B67-3D28-44CF-A787-D6B5FD9EAB58}">
   <dimension ref="A3:AO47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:T4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>35</v>
@@ -1538,9 +1538,7 @@
         <v>13</v>
       </c>
       <c r="Y41" s="1"/>
-      <c r="Z41" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1562,7 +1560,7 @@
         <v>35</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>36</v>
@@ -1774,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1416E338-54A6-456F-89BC-9D251DA08EE1}">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA18990-4EE8-4635-8D86-BB64E24E38C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97DD9DB-CDE5-4D25-8260-99D8B74DBCA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="72">
   <si>
     <t>A15</t>
   </si>
@@ -203,6 +203,54 @@
   </si>
   <si>
     <t>RESERVED</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>RX0</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>OEn</t>
+  </si>
+  <si>
+    <t>RCLK</t>
+  </si>
+  <si>
+    <t>SRCLK</t>
   </si>
 </sst>
 </file>
@@ -539,16 +587,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>385885</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>128467</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518295</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>186559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>118761</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>42562</xdr:rowOff>
+      <xdr:colOff>424681</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -571,8 +619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3800475" y="3533777"/>
-          <a:ext cx="1438095" cy="3390476"/>
+          <a:off x="3114676" y="3381378"/>
+          <a:ext cx="2028823" cy="4783186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D884B67-3D28-44CF-A787-D6B5FD9EAB58}">
   <dimension ref="A3:AO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z42" sqref="Z42"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C960A-ABA6-449D-B37A-7A91B41824C4}">
-  <dimension ref="A4:T5"/>
+  <dimension ref="A4:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,6 +1807,171 @@
       </c>
       <c r="T5" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +2074,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P46" sqref="P46:R75"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97DD9DB-CDE5-4D25-8260-99D8B74DBCA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B284B6-3FBE-4757-B87F-6902F20E04B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D884B67-3D28-44CF-A787-D6B5FD9EAB58}">
   <dimension ref="A3:AO47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1680,7 @@
   <dimension ref="A4:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,7 +1726,7 @@
         <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>35</v>

--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97DD9DB-CDE5-4D25-8260-99D8B74DBCA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABD75F1-7FA8-41EE-A85D-7A377E1714FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Programmer" sheetId="2" r:id="rId2"/>
-    <sheet name="MemoryMap" sheetId="6" r:id="rId3"/>
-    <sheet name="555" sheetId="4" r:id="rId4"/>
-    <sheet name="debug" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Debug " sheetId="7" r:id="rId2"/>
+    <sheet name="Programmer" sheetId="2" r:id="rId3"/>
+    <sheet name="MemoryMap" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="76">
   <si>
     <t>A15</t>
   </si>
@@ -251,6 +249,18 @@
   </si>
   <si>
     <t>SRCLK</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>Brk</t>
+  </si>
+  <si>
+    <t>OE</t>
   </si>
 </sst>
 </file>
@@ -632,346 +642,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>316231</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6868D44-2D10-49B0-B720-7933C743BC28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="600075"/>
-          <a:ext cx="5726431" cy="3886200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>118658</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AA4C26-700E-499A-838D-C550FF808823}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="1009650"/>
-          <a:ext cx="5071658" cy="3067050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>154606</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>32076</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6339D51D-29C4-492F-B6C7-AE11E95C4158}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13536706" y="1042147"/>
-          <a:ext cx="4771429" cy="3371429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>280148</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>18736</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>33093</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE90A77-98DC-448F-A185-72CEB21CA264}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12382501" y="4796117"/>
-          <a:ext cx="7000000" cy="4190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>80912</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>32988</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175863</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13A7784-ACC3-49D0-9BAD-DD26F5D02BF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="7600950" y="1571625"/>
-          <a:ext cx="3200000" cy="2390476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>386552</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="BC557 Transistor Pinout, Equivalent, Features uses - Envirementalb.com">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A323D2E9-4137-4341-8B51-52B32325A103}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7000876" y="933451"/>
-          <a:ext cx="4968076" cy="3314700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389AF31F-DC01-48D7-8D15-6F16E0BDABF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409826" y="819152"/>
-          <a:ext cx="3876674" cy="3876674"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1271,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D884B67-3D28-44CF-A787-D6B5FD9EAB58}">
   <dimension ref="A3:AO47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,11 +1346,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC19A571-F92F-460A-A9A5-EFA872359F1A}">
+  <dimension ref="B4:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C960A-ABA6-449D-B37A-7A91B41824C4}">
   <dimension ref="A4:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1645,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P16" t="s">
+      <c r="P16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -1851,12 +1654,12 @@
       <c r="R16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P17" t="s">
+      <c r="P17" s="4" t="s">
         <v>69</v>
       </c>
       <c r="Q17" s="1" t="s">
@@ -1865,12 +1668,12 @@
       <c r="R17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P18" t="s">
+      <c r="P18" s="4" t="s">
         <v>70</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -1879,12 +1682,12 @@
       <c r="R18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P19" t="s">
+      <c r="P19" s="4" t="s">
         <v>71</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -1893,7 +1696,7 @@
       <c r="R19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1907,7 +1710,7 @@
       <c r="R20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1921,7 +1724,7 @@
       <c r="R21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1935,7 +1738,7 @@
       <c r="R22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1946,7 +1749,7 @@
       <c r="R23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1981,7 +1784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1416E338-54A6-456F-89BC-9D251DA08EE1}">
   <dimension ref="B2:E5"/>
   <sheetViews>
@@ -2051,52 +1854,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D40893-0E40-43C7-B9BD-3B8B49C8C7E7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4279E6B0-CFAA-4D9F-AFB8-6F1B9006298B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8B79B4-CE74-4060-BD3B-385346B424EA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01F65A-F868-46BF-A58C-F4DD3D08C9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768A24E9-22F1-4638-9F70-22DCC1823540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
@@ -942,7 +942,7 @@
   <dimension ref="A3:AO47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1483,7 @@
   <dimension ref="A4:T26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,9 +1654,6 @@
       <c r="R16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="17" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P17" s="4" t="s">
@@ -1668,9 +1665,6 @@
       <c r="R17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="18" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P18" s="4" t="s">
@@ -1762,6 +1756,9 @@
       </c>
     </row>
     <row r="25" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P25" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="Q25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1770,6 +1767,9 @@
       </c>
     </row>
     <row r="26" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P26" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q26" s="1" t="s">
         <v>61</v>
       </c>

--- a/docs/mb.xlsx
+++ b/docs/mb.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\6502\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768A24E9-22F1-4638-9F70-22DCC1823540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD24CEF-75BD-4891-8304-74157207B8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F152B960-C478-479B-854B-46C75EE67882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Debug " sheetId="7" r:id="rId2"/>
-    <sheet name="Programmer" sheetId="2" r:id="rId3"/>
-    <sheet name="MemoryMap" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Debug " sheetId="7" r:id="rId3"/>
+    <sheet name="Programmer" sheetId="2" r:id="rId4"/>
+    <sheet name="MemoryMap" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="76">
   <si>
     <t>A15</t>
   </si>
@@ -506,6 +508,99 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40686</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411657</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>183057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A3C8BE-D357-4725-87CD-B14C8D26ECFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1869486" y="942975"/>
+          <a:ext cx="4028571" cy="5336082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>566743</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>242893</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC2C533-CBD0-478F-9678-AD9BF92647B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="10925180" y="1519237"/>
+          <a:ext cx="5781675" cy="4552950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -941,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D884B67-3D28-44CF-A787-D6B5FD9EAB58}">
   <dimension ref="A3:AO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,6 +1441,143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E362C991-19CB-4515-988F-6DD8335B237D}">
+  <dimension ref="N10:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC19A571-F92F-460A-A9A5-EFA872359F1A}">
   <dimension ref="B4:Q8"/>
   <sheetViews>
@@ -1478,7 +1710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C960A-ABA6-449D-B37A-7A91B41824C4}">
   <dimension ref="A4:T26"/>
   <sheetViews>
@@ -1784,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1416E338-54A6-456F-89BC-9D251DA08EE1}">
   <dimension ref="B2:E5"/>
   <sheetViews>
